--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1121418.092981842</v>
+        <v>1118717.443358534</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>25.67913628361561</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>124.0596109626758</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>153.3100698760832</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>18.56117045231616</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.90919546454411</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.073567695085339</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2614740877795</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825859</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9653033936934</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520097</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980479</v>
+        <v>64.45828691911876</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937132</v>
+        <v>383.0198440937167</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>32.58278801009133</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339772</v>
+        <v>97.34583147339765</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259349</v>
+        <v>36.31604239259327</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677711</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>39.72016663386599</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.5819666322023</v>
       </c>
       <c r="H7" t="n">
-        <v>77.27343773400081</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5810943629794</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478217</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.177322371449</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983621</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>237.9193059650773</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021714</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570811</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>96.05927042690655</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>270.1915102239717</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.4672003733565</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>196.2511428064784</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754675</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>38.03682829123491</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.4419293341459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833646</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892462</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428313</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428195</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>74.99129529219189</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8253826161919733</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977276</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>172.570234603628</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699812</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>26.05480806223622</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>142.134301272164</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833841</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>86.24032515900458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>98.20549876776231</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4316,34 +4316,34 @@
         <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>814.4829423425513</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>560.79792428368</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.9557668406086</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>175.9557668406086</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>175.9557668406086</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110954</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W3" t="n">
-        <v>591.5675658110954</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>383.7160656055626</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.9557668406086</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>252.5678342013043</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>83.63165127339738</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1051.750906172605</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.750906172605</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.750906172605</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>785.373249605427</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V4" t="n">
-        <v>530.6887613995401</v>
+        <v>700.593955598722</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>434.216299031544</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>434.216299031544</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>434.216299031544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.1487931550113</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="C5" t="n">
-        <v>274.1487931550113</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="D5" t="n">
-        <v>274.1487931550113</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="E5" t="n">
-        <v>274.1487931550113</v>
+        <v>363.2301242988746</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117996</v>
+        <v>356.2846235496711</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438617</v>
+        <v>343.7378535817331</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438617</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749706</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281316</v>
+        <v>93.51877468281447</v>
       </c>
       <c r="K5" t="n">
-        <v>238.493897245296</v>
+        <v>238.4938972452987</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192514</v>
+        <v>455.2501182192564</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494172</v>
+        <v>728.1026159494243</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730194</v>
+        <v>1009.983960730203</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.82126014536</v>
+        <v>1262.821260145371</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739588</v>
+        <v>1444.111044739601</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374853</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374853</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938093996</v>
+        <v>1466.969995648484</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938093996</v>
+        <v>1466.969995648484</v>
       </c>
       <c r="U5" t="n">
-        <v>1387.271938093996</v>
+        <v>1466.969995648484</v>
       </c>
       <c r="V5" t="n">
-        <v>1387.271938093996</v>
+        <v>1135.907108304913</v>
       </c>
       <c r="W5" t="n">
-        <v>1034.503282823882</v>
+        <v>1135.907108304913</v>
       </c>
       <c r="X5" t="n">
-        <v>661.0375245628024</v>
+        <v>1135.907108304913</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.1487931550113</v>
+        <v>749.0183768971187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198.5654884124289</v>
+        <v>489.0410202739068</v>
       </c>
       <c r="C6" t="n">
-        <v>198.5654884124289</v>
+        <v>314.5879909927799</v>
       </c>
       <c r="D6" t="n">
-        <v>198.5654884124289</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="E6" t="n">
-        <v>198.5654884124289</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="F6" t="n">
-        <v>198.5654884124289</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="G6" t="n">
         <v>165.6535813315286</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112684</v>
+        <v>67.3244586311269</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749706</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="J6" t="n">
-        <v>69.88900179494847</v>
+        <v>49.27296248835663</v>
       </c>
       <c r="K6" t="n">
-        <v>179.8878138897228</v>
+        <v>202.9042018085662</v>
       </c>
       <c r="L6" t="n">
-        <v>374.1173326028478</v>
+        <v>582.0938474613457</v>
       </c>
       <c r="M6" t="n">
-        <v>620.1308878987835</v>
+        <v>828.107402757283</v>
       </c>
       <c r="N6" t="n">
-        <v>887.0643348829694</v>
+        <v>1095.040849741471</v>
       </c>
       <c r="O6" t="n">
-        <v>1109.036493992969</v>
+        <v>1317.013008851472</v>
       </c>
       <c r="P6" t="n">
-        <v>1267.855654846695</v>
+        <v>1475.832169705198</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374853</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="R6" t="n">
-        <v>1527.597595565077</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="S6" t="n">
-        <v>1527.597595565077</v>
+        <v>1387.587760525672</v>
       </c>
       <c r="T6" t="n">
-        <v>1331.687918202574</v>
+        <v>1387.587760525672</v>
       </c>
       <c r="U6" t="n">
-        <v>1103.56675234286</v>
+        <v>1159.466594665958</v>
       </c>
       <c r="V6" t="n">
-        <v>868.4146441111172</v>
+        <v>1119.345214227709</v>
       </c>
       <c r="W6" t="n">
-        <v>614.1772873829157</v>
+        <v>865.1078574995076</v>
       </c>
       <c r="X6" t="n">
-        <v>406.3257871773828</v>
+        <v>657.2563572939748</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.5654884124289</v>
+        <v>657.2563572939748</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.584033163265</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="C7" t="n">
-        <v>257.584033163265</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="D7" t="n">
-        <v>257.584033163265</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="E7" t="n">
-        <v>257.584033163265</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="F7" t="n">
-        <v>110.6940856653547</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="G7" t="n">
-        <v>110.6940856653547</v>
+        <v>148.400268702224</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626293</v>
+        <v>148.400268702224</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626293</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749706</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961746999</v>
+        <v>157.2595961747007</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914613</v>
+        <v>374.8134887914629</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437679</v>
+        <v>614.5826883437703</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630854</v>
+        <v>854.0853286630886</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109131</v>
+        <v>1059.288486109135</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016228</v>
+        <v>1211.354555016233</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767122</v>
+        <v>1233.202138767127</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767122</v>
+        <v>1112.821005058593</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.67524230413</v>
+        <v>1112.821005058593</v>
       </c>
       <c r="T7" t="n">
-        <v>1029.67524230413</v>
+        <v>888.1512723739639</v>
       </c>
       <c r="U7" t="n">
-        <v>1029.67524230413</v>
+        <v>599.0113444282779</v>
       </c>
       <c r="V7" t="n">
-        <v>774.990754098243</v>
+        <v>599.0113444282779</v>
       </c>
       <c r="W7" t="n">
-        <v>485.5735840612824</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="X7" t="n">
-        <v>257.584033163265</v>
+        <v>309.5941743913173</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.584033163265</v>
+        <v>309.5941743913173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.016797122299</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1990.953909778728</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1990.953909778728</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.953909778728</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1990.953909778728</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,25 +4884,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020.823851532404</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1651.861334591992</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="D11" t="n">
-        <v>1293.595635985242</v>
+        <v>1176.993134082604</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>1176.993134082604</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>766.0072292929963</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>351.4317836226431</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
         <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750372</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.26048438298</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.19759703941</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769295</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508215</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532404</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376503</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649599</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>977.390502384806</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504.4639419262176</v>
+        <v>226.424159807085</v>
       </c>
       <c r="C13" t="n">
-        <v>504.4639419262176</v>
+        <v>226.424159807085</v>
       </c>
       <c r="D13" t="n">
-        <v>504.4639419262176</v>
+        <v>226.424159807085</v>
       </c>
       <c r="E13" t="n">
-        <v>504.4639419262174</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>357.5739944283071</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>190.0940969048497</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5215,34 +5215,34 @@
         <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
         <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544746</v>
+        <v>834.2956531176435</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564573</v>
+        <v>606.3061022196262</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.1124067564573</v>
+        <v>408.0726246373247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200319</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5312,16 +5312,16 @@
         <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1586.31563634397</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246418</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>576.1523423967349</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>426.035702984399</v>
+        <v>175.006167681831</v>
       </c>
       <c r="E16" t="n">
-        <v>278.122609402006</v>
+        <v>175.006167681831</v>
       </c>
       <c r="F16" t="n">
-        <v>131.2326619040956</v>
+        <v>175.006167681831</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233389</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298412</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548815</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614389</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400727</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474265</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,13 +5911,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703124</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400716</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121646</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,25 +6145,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138414</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703113</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>94.65038286230724</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474265</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7257,13 +7257,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.393082295247</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311997</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7557007032929</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>482.6390612909572</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>334.725967708564</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>334.725967708564</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614395</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752837</v>
+        <v>34.5845809875276</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.82428212787143</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.07315881356988</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.8284110501548</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>21.89339468985682</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>285.8710996453552</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670549</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238022</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>32.3255045667113</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>22.33351054561635</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729008</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>127.505224585932</v>
+        <v>84.16945386597396</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.3900508477914</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788743</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409392923</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012228</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194191</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>142.4141550350964</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>139.4693302300319</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431585</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>44.83521572366025</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823112</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>139.4693302300326</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>38.89198472948057</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>139.4693302300326</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>67.31863952450654</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875190.0444586714</v>
+        <v>875190.0444586716</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952297.8911498715</v>
+        <v>952297.8911498714</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876633</v>
+        <v>423807.2415876636</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
@@ -26335,25 +26335,25 @@
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217534</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103516</v>
+        <v>132064.9098103554</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196379</v>
+        <v>266112.9182196343</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357066</v>
+        <v>325187.1190357071</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051376</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557868</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648315</v>
+        <v>30705.53736648403</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950893</v>
+        <v>65187.38037950799</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456824</v>
+        <v>84929.59434456847</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848903</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224528</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213728.6998709251</v>
+        <v>213728.6998709241</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26430,25 +26430,25 @@
         <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.14432176887</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768888</v>
+        <v>9947.144321768903</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768885</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26457,7 +26457,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589712</v>
+        <v>72540.50950589738</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214713</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520474.7324542004</v>
+        <v>-520474.7324542003</v>
       </c>
       <c r="C6" t="n">
-        <v>53764.8984847891</v>
+        <v>53764.89848478607</v>
       </c>
       <c r="D6" t="n">
-        <v>-24882.08339474167</v>
+        <v>-24882.08339473774</v>
       </c>
       <c r="E6" t="n">
-        <v>2678.377025346694</v>
+        <v>2468.41278150171</v>
       </c>
       <c r="F6" t="n">
-        <v>184936.7813723477</v>
+        <v>184890.8763767825</v>
       </c>
       <c r="G6" t="n">
-        <v>341872.384440499</v>
+        <v>341837.6465150632</v>
       </c>
       <c r="H6" t="n">
-        <v>353039.6206760777</v>
+        <v>353004.882750642</v>
       </c>
       <c r="I6" t="n">
-        <v>353039.6206760775</v>
+        <v>353004.882750642</v>
       </c>
       <c r="J6" t="n">
-        <v>284040.4662569636</v>
+        <v>284005.7283315278</v>
       </c>
       <c r="K6" t="n">
-        <v>322334.0833095945</v>
+        <v>322299.3453841576</v>
       </c>
       <c r="L6" t="n">
-        <v>287852.2402965687</v>
+        <v>287817.5023711338</v>
       </c>
       <c r="M6" t="n">
-        <v>268110.0263315094</v>
+        <v>268075.2884060735</v>
       </c>
       <c r="N6" t="n">
-        <v>309257.2141175885</v>
+        <v>309222.4761921528</v>
       </c>
       <c r="O6" t="n">
-        <v>350016.3226988532</v>
+        <v>349981.5847734173</v>
       </c>
       <c r="P6" t="n">
-        <v>353039.6206760777</v>
+        <v>353004.8827506417</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605207</v>
+        <v>716.7570176605236</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937132</v>
+        <v>383.0198440937167</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086481</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910423</v>
+        <v>102.7020038910453</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570184</v>
+        <v>217.3078744570155</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770168</v>
+        <v>278.1053753770173</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922071</v>
+        <v>119.3059640922105</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063255</v>
+        <v>257.564988006322</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086094</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922071</v>
+        <v>119.3059640922105</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063255</v>
+        <v>257.5649880063218</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086101</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922071</v>
+        <v>119.3059640922105</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063255</v>
+        <v>257.564988006322</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086094</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>225.1813577547372</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>4.335010579317697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27509,16 +27509,16 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>233.1338127086034</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.70627755366824</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>124.4310351885786</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>277.6145716539319</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.38935721520052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>78.90107697892884</v>
       </c>
       <c r="T5" t="n">
         <v>210.4823667709296</v>
@@ -27673,16 +27673,16 @@
         <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562340355</v>
+        <v>3.218094562336887</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2190253792835</v>
+        <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.436963001677313</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>193.0804205155593</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>7.116500071458802</v>
       </c>
       <c r="H7" t="n">
-        <v>73.4621222607832</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629795</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422477833</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714493</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.491627498362</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>13.1259441633847</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1481050682519</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28059,19 +28059,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.72375040465641</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29004,10 +29004,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-6.063298011819521e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.333925562600295e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876463</v>
+        <v>2.881435246876475</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207358</v>
+        <v>29.5094987220737</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552049</v>
+        <v>111.0865323552054</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845814</v>
+        <v>244.5582147845824</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848621</v>
+        <v>366.5293687848637</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214578</v>
+        <v>454.7120927214597</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930971</v>
+        <v>505.9548167930992</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882848</v>
+        <v>514.141694688287</v>
       </c>
       <c r="O5" t="n">
-        <v>485.489422952157</v>
+        <v>485.489422952159</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948942</v>
+        <v>414.353990294896</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161308</v>
+        <v>311.1625905161321</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266038</v>
+        <v>181.0009568266045</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819747</v>
+        <v>65.66070568819774</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320172</v>
+        <v>12.61348279320177</v>
       </c>
       <c r="U5" t="n">
-        <v>0.230514819750117</v>
+        <v>0.2305148197501179</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835837</v>
+        <v>1.541703773835843</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309874</v>
+        <v>14.88961276309881</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882158</v>
+        <v>53.0805904588218</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342007</v>
+        <v>145.6571973342013</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812018</v>
+        <v>248.9513501812028</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234347</v>
+        <v>334.7458128234361</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249837</v>
+        <v>390.6325746249853</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118039</v>
+        <v>400.9714565118056</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757572</v>
+        <v>366.8105465757587</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160732</v>
+        <v>294.3978022160744</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584132</v>
+        <v>196.797134358414</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096542</v>
+        <v>95.72087115096582</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313493</v>
+        <v>28.63647141313505</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943568</v>
+        <v>6.214148105943594</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576209</v>
+        <v>0.1014278798576213</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29251265479766</v>
+        <v>1.292512654797665</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265557</v>
+        <v>11.49161251265562</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427874</v>
+        <v>38.86938056427889</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419456</v>
+        <v>91.38064469419494</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574008</v>
+        <v>150.1664702574014</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232812</v>
+        <v>192.161381423282</v>
       </c>
       <c r="M7" t="n">
-        <v>202.607233697055</v>
+        <v>202.6072336970558</v>
       </c>
       <c r="N7" t="n">
-        <v>197.789686529173</v>
+        <v>197.7896865291738</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981275</v>
+        <v>182.6907886981283</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402551</v>
+        <v>156.3235305402557</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667386</v>
+        <v>108.2303096667391</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572023</v>
+        <v>58.11606900572047</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861012</v>
+        <v>22.52497053861022</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499091</v>
+        <v>5.522554070499115</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169063</v>
+        <v>0.07050069026169092</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324415</v>
+        <v>219.8517740430746</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431811</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32084,10 +32084,10 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>672.0481308502335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32096,10 +32096,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789511</v>
+        <v>63.51231025789613</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398816</v>
+        <v>146.4395177398831</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514706</v>
+        <v>218.9456777514724</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658243</v>
+        <v>275.6085835658264</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916939</v>
+        <v>284.7286310916961</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304703</v>
+        <v>255.3912115304722</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396247</v>
+        <v>183.1209945396265</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168134</v>
+        <v>88.85690064168264</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64385279540546</v>
+        <v>18.81957066753463</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068428</v>
+        <v>155.1830700204137</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435606</v>
+        <v>383.0198440937167</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029654</v>
+        <v>248.498540702967</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284706</v>
+        <v>269.6297444284722</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313128</v>
+        <v>224.2143021313143</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017429</v>
+        <v>160.4233948017441</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8926480082407</v>
+        <v>56.81536027239247</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.896978431518</v>
+        <v>127.8969784315186</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835974</v>
+        <v>219.7514066835982</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588956</v>
+        <v>242.1911106588964</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084016</v>
+        <v>241.9218589084024</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121672</v>
+        <v>207.2759166121679</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051486</v>
+        <v>153.6020898051492</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504423</v>
+        <v>22.06826641504468</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35270,10 +35270,10 @@
         <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042322</v>
+        <v>77.71774012105629</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987366</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35732,10 +35732,10 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>529.9140969282151</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35744,10 +35744,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
